--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam4-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam4-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H2">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I2">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J2">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N2">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q2">
-        <v>15.178443916052</v>
+        <v>5.049815274909776</v>
       </c>
       <c r="R2">
-        <v>136.605995244468</v>
+        <v>45.44833747418799</v>
       </c>
       <c r="S2">
-        <v>0.1786647515080437</v>
+        <v>0.107873929546672</v>
       </c>
       <c r="T2">
-        <v>0.1786647515080437</v>
+        <v>0.107873929546672</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H3">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I3">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J3">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P3">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q3">
-        <v>44.316640898409</v>
+        <v>13.25836933759066</v>
       </c>
       <c r="R3">
-        <v>398.849768085681</v>
+        <v>119.325324038316</v>
       </c>
       <c r="S3">
-        <v>0.5216491016850507</v>
+        <v>0.2832246967395388</v>
       </c>
       <c r="T3">
-        <v>0.5216491016850507</v>
+        <v>0.2832246967395388</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H4">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I4">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J4">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N4">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O4">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P4">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q4">
-        <v>4.005366857165001</v>
+        <v>0.9516289116204445</v>
       </c>
       <c r="R4">
-        <v>36.048301714485</v>
+        <v>8.564660204583999</v>
       </c>
       <c r="S4">
-        <v>0.04714698543485972</v>
+        <v>0.02032865453054699</v>
       </c>
       <c r="T4">
-        <v>0.04714698543485971</v>
+        <v>0.02032865453054699</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H5">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I5">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J5">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N5">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q5">
-        <v>1.224481294507</v>
+        <v>0.3582252185991111</v>
       </c>
       <c r="R5">
-        <v>11.020331650563</v>
+        <v>3.224026967392</v>
       </c>
       <c r="S5">
-        <v>0.01441331189279412</v>
+        <v>0.007652391204288582</v>
       </c>
       <c r="T5">
-        <v>0.01441331189279412</v>
+        <v>0.007652391204288582</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.711597</v>
       </c>
       <c r="I6">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J6">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N6">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q6">
-        <v>3.070096121710667</v>
+        <v>3.414105489655666</v>
       </c>
       <c r="R6">
-        <v>27.630865095396</v>
+        <v>30.726949406901</v>
       </c>
       <c r="S6">
-        <v>0.03613795746948464</v>
+        <v>0.0729319697862813</v>
       </c>
       <c r="T6">
-        <v>0.03613795746948462</v>
+        <v>0.0729319697862813</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.711597</v>
       </c>
       <c r="I7">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J7">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P7">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q7">
         <v>8.963787599172999</v>
@@ -883,10 +883,10 @@
         <v>80.674088392557</v>
       </c>
       <c r="S7">
-        <v>0.1055123234525671</v>
+        <v>0.1914840324454833</v>
       </c>
       <c r="T7">
-        <v>0.1055123234525671</v>
+        <v>0.1914840324454833</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.711597</v>
       </c>
       <c r="I8">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J8">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N8">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O8">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P8">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q8">
-        <v>0.8101529591716667</v>
+        <v>0.6433822455686667</v>
       </c>
       <c r="R8">
-        <v>7.291376632545001</v>
+        <v>5.790440210118</v>
       </c>
       <c r="S8">
-        <v>0.00953627248843578</v>
+        <v>0.01374390294530012</v>
       </c>
       <c r="T8">
-        <v>0.009536272488435776</v>
+        <v>0.01374390294530012</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>3.711597</v>
       </c>
       <c r="I9">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J9">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N9">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q9">
-        <v>0.2476719810123333</v>
+        <v>0.2421907770426667</v>
       </c>
       <c r="R9">
-        <v>2.229047829111</v>
+        <v>2.179716993384</v>
       </c>
       <c r="S9">
-        <v>0.00291533527335279</v>
+        <v>0.00517366861900135</v>
       </c>
       <c r="T9">
-        <v>0.002915335273352789</v>
+        <v>0.00517366861900135</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H10">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I10">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J10">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N10">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q10">
-        <v>0.1273856006004445</v>
+        <v>0.422385054141111</v>
       </c>
       <c r="R10">
-        <v>1.146470405404</v>
+        <v>3.801465487269999</v>
       </c>
       <c r="S10">
-        <v>0.001499449930629064</v>
+        <v>0.009022970760608576</v>
       </c>
       <c r="T10">
-        <v>0.001499449930629064</v>
+        <v>0.009022970760608576</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H11">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I11">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J11">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.735681</v>
       </c>
       <c r="O11">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P11">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q11">
-        <v>0.3719288978936667</v>
+        <v>1.108978595376667</v>
       </c>
       <c r="R11">
-        <v>3.347360081043</v>
+        <v>9.980807358389999</v>
       </c>
       <c r="S11">
-        <v>0.004377957614650968</v>
+        <v>0.02368995148412973</v>
       </c>
       <c r="T11">
-        <v>0.004377957614650967</v>
+        <v>0.02368995148412973</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H12">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I12">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J12">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N12">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O12">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P12">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q12">
-        <v>0.03361517593944445</v>
+        <v>0.07959772931777778</v>
       </c>
       <c r="R12">
-        <v>0.3025365834550001</v>
+        <v>0.71637956386</v>
       </c>
       <c r="S12">
-        <v>0.0003956826595227271</v>
+        <v>0.001700363157274985</v>
       </c>
       <c r="T12">
-        <v>0.000395682659522727</v>
+        <v>0.001700363157274985</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H13">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I13">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J13">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N13">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q13">
-        <v>0.01027650040988889</v>
+        <v>0.02996326996444445</v>
       </c>
       <c r="R13">
-        <v>0.092488503689</v>
+        <v>0.26966942968</v>
       </c>
       <c r="S13">
-        <v>0.0001209642043848375</v>
+        <v>0.0006400740417559422</v>
       </c>
       <c r="T13">
-        <v>0.0001209642043848375</v>
+        <v>0.0006400740417559422</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H14">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I14">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J14">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N14">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q14">
-        <v>1.546582436858223</v>
+        <v>3.163468035884444</v>
       </c>
       <c r="R14">
-        <v>13.919241931724</v>
+        <v>28.47121232296</v>
       </c>
       <c r="S14">
-        <v>0.01820474933374141</v>
+        <v>0.0675778636342781</v>
       </c>
       <c r="T14">
-        <v>0.01820474933374141</v>
+        <v>0.0675778636342781</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H15">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I15">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J15">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>21.735681</v>
       </c>
       <c r="O15">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P15">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q15">
-        <v>4.515570822220334</v>
+        <v>8.305735026746666</v>
       </c>
       <c r="R15">
-        <v>40.640137399983</v>
+        <v>74.75161524072</v>
       </c>
       <c r="S15">
-        <v>0.05315257238034549</v>
+        <v>0.177426742629631</v>
       </c>
       <c r="T15">
-        <v>0.05315257238034547</v>
+        <v>0.177426742629631</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H16">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I16">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J16">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N16">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O16">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P16">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q16">
-        <v>0.4081202308172224</v>
+        <v>0.5961500530311111</v>
       </c>
       <c r="R16">
-        <v>3.673082077355001</v>
+        <v>5.36535047728</v>
       </c>
       <c r="S16">
-        <v>0.004803964097218901</v>
+        <v>0.0127349309467705</v>
       </c>
       <c r="T16">
-        <v>0.0048039640972189</v>
+        <v>0.0127349309467705</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H17">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I17">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J17">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N17">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q17">
-        <v>0.1247664961454445</v>
+        <v>0.2244109867377778</v>
       </c>
       <c r="R17">
-        <v>1.122898465309</v>
+        <v>2.01969888064</v>
       </c>
       <c r="S17">
-        <v>0.001468620574918146</v>
+        <v>0.004793857528438546</v>
       </c>
       <c r="T17">
-        <v>0.001468620574918146</v>
+        <v>0.004793857528438546</v>
       </c>
     </row>
   </sheetData>
